--- a/formato-postulante-plazas-subir.xlsx
+++ b/formato-postulante-plazas-subir.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>OM</t>
   </si>
@@ -44,105 +44,6 @@
   </si>
   <si>
     <t>cant. Plazas</t>
-  </si>
-  <si>
-    <t>ASDasd</t>
-  </si>
-  <si>
-    <t>dassda</t>
-  </si>
-  <si>
-    <t>dadsads</t>
-  </si>
-  <si>
-    <t>adsasd</t>
-  </si>
-  <si>
-    <t>CHOFER</t>
-  </si>
-  <si>
-    <t>GOF</t>
-  </si>
-  <si>
-    <t>CENATE</t>
-  </si>
-  <si>
-    <t>olivos</t>
-  </si>
-  <si>
-    <t>lince</t>
-  </si>
-  <si>
-    <t>smp</t>
-  </si>
-  <si>
-    <t>centro</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Freddy</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Latue</t>
-  </si>
-  <si>
-    <t>Cabanillas</t>
-  </si>
-  <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
-    <t>Apaza</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Taicas</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>pediatra</t>
-  </si>
-  <si>
-    <t>cirujano</t>
-  </si>
-  <si>
-    <t>obstetricia</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>guerra</t>
   </si>
 </sst>
 </file>
@@ -500,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,160 +433,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -694,10 +441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,76 +463,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formato-postulante-plazas-subir.xlsx
+++ b/formato-postulante-plazas-subir.xlsx
@@ -4,23 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21012" windowHeight="6192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Postulantes" sheetId="1" r:id="rId1"/>
     <sheet name="Plazas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="121">
   <si>
     <t>OM</t>
   </si>
@@ -44,13 +53,352 @@
   </si>
   <si>
     <t>cant. Plazas</t>
+  </si>
+  <si>
+    <t>CENATE</t>
+  </si>
+  <si>
+    <t>GOF</t>
+  </si>
+  <si>
+    <t>SG ATENCION DOMICILIARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGPE-DIRECCIÓN HOSPITAL PERU </t>
+  </si>
+  <si>
+    <t>SGPE-DIRECCIÓN PROYECTOS ESPECIALES</t>
+  </si>
+  <si>
+    <t>SG STAE</t>
+  </si>
+  <si>
+    <t>CEPRIT</t>
+  </si>
+  <si>
+    <t>ENFERMERA</t>
+  </si>
+  <si>
+    <t>MEDICO ESPECIALISTA</t>
+  </si>
+  <si>
+    <t>CARDIOLOGIA</t>
+  </si>
+  <si>
+    <t>NEUROLOGIA</t>
+  </si>
+  <si>
+    <t>RADIOLOGIA</t>
+  </si>
+  <si>
+    <t>MEDICO GENERAL</t>
+  </si>
+  <si>
+    <t>NUTRICIONISTA</t>
+  </si>
+  <si>
+    <t>OBSTETRA</t>
+  </si>
+  <si>
+    <t>PSICOLOGO</t>
+  </si>
+  <si>
+    <t>TECNOLOGO MEDICO</t>
+  </si>
+  <si>
+    <t>ASISTENTE SOCIAL</t>
+  </si>
+  <si>
+    <t>CHOFER DE AMBULANCIA</t>
+  </si>
+  <si>
+    <t>CIRUJANO DENTISTA</t>
+  </si>
+  <si>
+    <t>DIGITADOR ASISTENCIAL</t>
+  </si>
+  <si>
+    <t>QUIMICO FARMACEUTICO</t>
+  </si>
+  <si>
+    <t>TECNICO DE ENFERMERIA</t>
+  </si>
+  <si>
+    <t>TECNICO NO DIPLOMADO</t>
+  </si>
+  <si>
+    <t>FARMACIA</t>
+  </si>
+  <si>
+    <t>LABORATORIO CLINICO Y ANATOMIA PATOLOGICA</t>
+  </si>
+  <si>
+    <t>ENFERMERA ESPECIALISTA</t>
+  </si>
+  <si>
+    <t>OFTALMOLOGIA</t>
+  </si>
+  <si>
+    <t>ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICO </t>
+  </si>
+  <si>
+    <t>CONDUCTOR DE AMBULANCIA</t>
+  </si>
+  <si>
+    <t>TECNICO EN ENFERMERIA</t>
+  </si>
+  <si>
+    <t>LABORATORIO CLINICO</t>
+  </si>
+  <si>
+    <t>LABORATORIO</t>
+  </si>
+  <si>
+    <t>NICIDA</t>
+  </si>
+  <si>
+    <t>EISLER</t>
+  </si>
+  <si>
+    <t>LESLY</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>ROSAURA</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>ELDA</t>
+  </si>
+  <si>
+    <t>YOEL</t>
+  </si>
+  <si>
+    <t>HRISTO</t>
+  </si>
+  <si>
+    <t>LUISANA</t>
+  </si>
+  <si>
+    <t>MELVIN</t>
+  </si>
+  <si>
+    <t>AMERICO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALICIA</t>
+  </si>
+  <si>
+    <t>NEIL</t>
+  </si>
+  <si>
+    <t>ALHEXIS</t>
+  </si>
+  <si>
+    <t>JAYRA</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>RIGOBERTO</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>SHEYLA</t>
+  </si>
+  <si>
+    <t>JAJAIRA</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>RUBI</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>YASHINA</t>
+  </si>
+  <si>
+    <t>YULI</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JARA BECERRA</t>
+  </si>
+  <si>
+    <t>DAVILA CELIS</t>
+  </si>
+  <si>
+    <t>REGALADO CUBAS</t>
+  </si>
+  <si>
+    <t>RAFAEL DELGADO</t>
+  </si>
+  <si>
+    <t>MEGO DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>SANTA IZQUIERDO</t>
+  </si>
+  <si>
+    <t>PORTOCARRERO LOPEZ</t>
+  </si>
+  <si>
+    <t>BAZAN MAICELO</t>
+  </si>
+  <si>
+    <t>INGA OCAMPO</t>
+  </si>
+  <si>
+    <t>NAMUCHE PALACIOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ QUISPE</t>
+  </si>
+  <si>
+    <t>ALVITES RIOS</t>
+  </si>
+  <si>
+    <t>VARGAS ROMAN</t>
+  </si>
+  <si>
+    <t>REYNA VARGAS</t>
+  </si>
+  <si>
+    <t>VARGAS VASQUEZ</t>
+  </si>
+  <si>
+    <t>TAFUR VELAYSOSA</t>
+  </si>
+  <si>
+    <t>FLORES APONTE</t>
+  </si>
+  <si>
+    <t>ROSAS AYALA</t>
+  </si>
+  <si>
+    <t>DIESTRA BELTRAN</t>
+  </si>
+  <si>
+    <t>ZAMORA BENITES</t>
+  </si>
+  <si>
+    <t>MEDINA CADILLO</t>
+  </si>
+  <si>
+    <t>SANCHEZ CALERO</t>
+  </si>
+  <si>
+    <t>MACEDO CARBAJAL</t>
+  </si>
+  <si>
+    <t>CARLOS DIAS</t>
+  </si>
+  <si>
+    <t>SALINAS ESPINOZA</t>
+  </si>
+  <si>
+    <t>MEZA GARAY</t>
+  </si>
+  <si>
+    <t>ITURRY GOMEZ</t>
+  </si>
+  <si>
+    <t>LECCA LESCANO</t>
+  </si>
+  <si>
+    <t>REYES MANTILLA</t>
+  </si>
+  <si>
+    <t>VILLALOBOS MATTOS</t>
+  </si>
+  <si>
+    <t>AVILA MECA</t>
+  </si>
+  <si>
+    <t>REYNA MEJIA</t>
+  </si>
+  <si>
+    <t>CARBONELL MENDEZ</t>
+  </si>
+  <si>
+    <t>QUISPE MENDOZA</t>
+  </si>
+  <si>
+    <t>MELGAREJO PAJUELO</t>
+  </si>
+  <si>
+    <t>SANCHEZ SAAVEDRA</t>
+  </si>
+  <si>
+    <t>DAGA SANTIAGO</t>
+  </si>
+  <si>
+    <t>GIBOVICH SEMINARIO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CASTILLO CARPIO</t>
+  </si>
+  <si>
+    <t>CARDIOLOGIA INFANTIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +414,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -113,17 +485,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,13 +828,11 @@
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +845,635 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B2:E40">
+    <sortCondition ref="D2:D40"/>
+    <sortCondition ref="E2:E40"/>
+    <sortCondition ref="B2:B40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -441,13 +1481,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+      <selection activeCell="D13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -463,6 +1507,708 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
